--- a/PCB/BOM_Draft.xlsx
+++ b/PCB/BOM_Draft.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Wuerth</t>
   </si>
@@ -57,42 +57,6 @@
     <t>Reed Kontakt</t>
   </si>
   <si>
-    <t>CSTNE8M00G55Z000R0</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>490-17960-1-ND‎</t>
-  </si>
-  <si>
-    <t>501-2008-ND‎</t>
-  </si>
-  <si>
-    <t>6245-48-02</t>
-  </si>
-  <si>
-    <t>Pomona</t>
-  </si>
-  <si>
-    <t>Messleitungsset</t>
-  </si>
-  <si>
-    <t>S-1206B33-U3T1U</t>
-  </si>
-  <si>
-    <t>Ablic</t>
-  </si>
-  <si>
-    <t>1662-2915-1-ND</t>
-  </si>
-  <si>
-    <t>LDO 3V3</t>
-  </si>
-  <si>
-    <t>IRLM6344</t>
-  </si>
-  <si>
     <t>Molex</t>
   </si>
   <si>
@@ -103,6 +67,18 @@
   </si>
   <si>
     <t>passt nicht!</t>
+  </si>
+  <si>
+    <t>Mrf</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>DigiKey no</t>
+  </si>
+  <si>
+    <t>remark</t>
   </si>
 </sst>
 </file>
@@ -159,10 +135,13 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +481,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -521,16 +500,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>615006138421</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -549,73 +528,43 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>615006138421</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>855135016</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>855135002</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1">
-        <v>855135016</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1">
-        <v>855135002</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -623,16 +572,12 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://www.digikey.de/product-detail/de/634104149621/732-5941-1-ND/5047557/?itemSeq=352858114"/>
     <hyperlink ref="C3" r:id="rId2" display="https://www.digikey.de/product-detail/de/634106149621/732-5940-1-ND/5047558/?itemSeq=352858194"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://www.digikey.de/product-detail/de/615006138421/732-2113-ND/2060609/?itemSeq=352858315"/>
+    <hyperlink ref="C6" r:id="rId3" display="https://www.digikey.de/product-detail/de/615006138421/732-2113-ND/2060609/?itemSeq=352858315"/>
     <hyperlink ref="C5" r:id="rId4" display="https://www.digikey.de/product-detail/de/MK16-B-2/374-1017-1-ND/385460/?itemSeq=352858538"/>
-    <hyperlink ref="C6" r:id="rId5" display="https://www.digikey.de/product-detail/de/CSTNE8M00G55Z000R0/490-17960-1-ND/8747768/?itemSeq=352858705"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://www.digikey.de/product-detail/de/6245-48-02/501-2008-ND/6125666/?itemSeq=352861337"/>
-    <hyperlink ref="B8" r:id="rId7" display="https://www.digikey.de/product-detail/de/ablic-u-s-a-inc/S-1206B33-U3T1U/1662-2915-1-ND/8022047"/>
-    <hyperlink ref="C8" r:id="rId8" display="https://www.digikey.de/product-detail/de/ablic-u-s-a-inc/S-1206B33-U3T1U/1662-2915-1-ND/8022047"/>
-    <hyperlink ref="B10" r:id="rId9" display="https://www.digikey.de/product-detail/de/molex/0855135016/WM3555CT-ND/2405776"/>
-    <hyperlink ref="C10" r:id="rId10" display="https://www.digikey.de/product-detail/de/molex/0855135016/WM3555CT-ND/2405776"/>
-    <hyperlink ref="B11" r:id="rId11" display="https://www.digikey.de/product-detail/de/molex/0855135002/WM3789CT-ND/2421677"/>
-    <hyperlink ref="C11" r:id="rId12" display="https://www.digikey.de/product-detail/de/molex/0855135002/WM3789CT-ND/2421677"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://www.digikey.de/product-detail/de/molex/0855135016/WM3555CT-ND/2405776"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://www.digikey.de/product-detail/de/molex/0855135016/WM3555CT-ND/2405776"/>
+    <hyperlink ref="B8" r:id="rId7" display="https://www.digikey.de/product-detail/de/molex/0855135002/WM3789CT-ND/2421677"/>
+    <hyperlink ref="C8" r:id="rId8" display="https://www.digikey.de/product-detail/de/molex/0855135002/WM3789CT-ND/2421677"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
